--- a/img/data/data.xlsx
+++ b/img/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Github\taintbench\GITHUB\TaintBench.github.io\img\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Github\taintbench\GitPod-GITHUB\TaintBench.github.io\img\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9DC81A-25A1-4DA0-8401-DA3AD5729F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F401F9BD-4B4B-466B-AE95-FF581AF7482E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Metrics</t>
   </si>
@@ -72,9 +72,6 @@
     <t>DroidBench</t>
   </si>
   <si>
-    <t>Code Complexity</t>
-  </si>
-  <si>
     <t># Sources</t>
   </si>
   <si>
@@ -597,6 +594,139 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Number of different source/sink APIs used in a benchmark app. </t>
+    </r>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t># Classes</t>
+  </si>
+  <si>
+    <t># Methods</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>CK Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Metrics </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Classes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number of classses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># Methods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number of methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LOC: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line of decompiled source code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all apps in the suite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">avg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average of the apps in the suite</t>
     </r>
   </si>
 </sst>
@@ -649,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1125,11 +1255,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1170,41 +1348,153 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1215,95 +1505,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,31 +1791,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:E70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="51" customWidth="1"/>
-    <col min="2" max="7" width="10.7109375" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="13.5703125" style="37" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" style="37" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="37"/>
+    <col min="12" max="12" width="12.5703125" style="37" customWidth="1"/>
+    <col min="13" max="13" width="13" style="37" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="37" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1631,46 +1845,58 @@
       <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="54"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="36"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>11</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="25">
         <v>4</v>
       </c>
       <c r="D4" s="7">
         <v>43</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>14</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>3</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>19597</v>
       </c>
       <c r="C5" s="1">
@@ -1679,67 +1905,79 @@
       <c r="D5" s="8">
         <v>32661</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>46251</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>10644</v>
       </c>
       <c r="G5" s="2">
         <v>3354</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>653.77</v>
       </c>
       <c r="C6" s="3">
         <v>223.8</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>1528.58</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1860.69</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>359.13</v>
       </c>
       <c r="G6" s="4">
         <v>145.88999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="28">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="29">
         <v>1.25</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="30">
         <v>7.28</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="28">
         <v>3.57</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="28">
         <v>0.75</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>7.55</v>
       </c>
       <c r="C8" s="1">
@@ -1748,78 +1986,94 @@
       <c r="D8" s="8">
         <v>30</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>27.64</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>5.94</v>
       </c>
       <c r="G8" s="2">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>4.5199999999999996</v>
       </c>
       <c r="C9" s="3">
         <v>1.55</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>10.56</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>12.85</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>2.48</v>
       </c>
       <c r="G9" s="4">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="25">
         <v>2</v>
       </c>
       <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>29</v>
       </c>
       <c r="C12" s="1">
@@ -1828,44 +2082,44 @@
       <c r="D12" s="8">
         <v>48</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>32</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>27</v>
       </c>
       <c r="G12" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>6.77</v>
       </c>
       <c r="C13" s="3">
         <v>5.26</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>11.01</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>4.07</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>5.12</v>
       </c>
       <c r="G13" s="4">
         <v>5.99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0.2</v>
       </c>
       <c r="C14" s="1">
@@ -1874,21 +2128,21 @@
       <c r="D14" s="8">
         <v>0.4</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>0.09</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
       <c r="C15" s="1">
@@ -1897,33 +2151,33 @@
       <c r="D15" s="8">
         <v>25</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>16</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>11.5</v>
       </c>
       <c r="G15" s="2">
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>2.0299999999999998</v>
       </c>
       <c r="C16" s="5">
         <v>1.57</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="32">
         <v>3.3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>1.22</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>1.0900000000000001</v>
       </c>
       <c r="G16" s="6">
@@ -1931,112 +2185,112 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
+      <c r="A31" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="D32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="E32" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>23</v>
+      <c r="A34" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="7">
         <v>4</v>
@@ -2047,16 +2301,16 @@
       <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="26">
         <v>13</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>24</v>
+      <c r="A35" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B35" s="8">
         <v>514</v>
@@ -2070,13 +2324,13 @@
       <c r="E35" s="2">
         <v>3486</v>
       </c>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>26</v>
+      <c r="A36" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B36" s="8">
         <v>96</v>
@@ -2090,13 +2344,13 @@
       <c r="E36" s="2">
         <v>364.5</v>
       </c>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>25</v>
+      <c r="A37" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="B37" s="9">
         <v>49</v>
@@ -2107,28 +2361,28 @@
       <c r="D37" s="9">
         <v>38.4</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <v>133.19999999999999</v>
       </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>23</v>
+      <c r="A39" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
@@ -2139,16 +2393,16 @@
       <c r="D39" s="7">
         <v>1</v>
       </c>
-      <c r="E39" s="53">
+      <c r="E39" s="39">
         <v>1</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>24</v>
+      <c r="A40" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="8">
         <v>8</v>
@@ -2159,16 +2413,16 @@
       <c r="D40" s="8">
         <v>13</v>
       </c>
-      <c r="E40" s="54">
+      <c r="E40" s="40">
         <v>22</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>26</v>
+      <c r="A41" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B41" s="8">
         <v>2.4</v>
@@ -2179,123 +2433,123 @@
       <c r="D41" s="8">
         <v>3.1</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="42">
+      <c r="A42" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="32">
         <v>2.4</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="32">
         <v>2.8</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="41">
         <v>3.3</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
+      <c r="A44" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
+      <c r="A45" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="58" t="s">
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="A51" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="45"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="46"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>23</v>
+      <c r="A54" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B54" s="7">
         <v>112</v>
@@ -2306,11 +2560,11 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>24</v>
+      <c r="A55" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B55" s="8">
         <v>83981</v>
@@ -2321,11 +2575,11 @@
       <c r="D55" s="2">
         <v>31</v>
       </c>
-      <c r="E55" s="47"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>26</v>
+      <c r="A56" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B56" s="8">
         <v>8922.08</v>
@@ -2336,11 +2590,11 @@
       <c r="D56" s="2">
         <v>2.21</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>25</v>
+      <c r="A57" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="B57" s="9">
         <v>1895.68</v>
@@ -2349,22 +2603,22 @@
         <v>4.79</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="46"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>23</v>
+      <c r="A59" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="B59" s="7">
         <v>11</v>
@@ -2375,11 +2629,11 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="47"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>24</v>
+      <c r="A60" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="B60" s="8">
         <v>144</v>
@@ -2390,11 +2644,11 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="47"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>26</v>
+      <c r="A61" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B61" s="8">
         <v>29.92</v>
@@ -2405,69 +2659,191 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="47"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="32">
+        <v>27.28</v>
+      </c>
+      <c r="C62" s="32">
+        <v>1.4</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="36"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="62"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="7">
+        <v>22024</v>
+      </c>
+      <c r="C76" s="7">
+        <v>150450</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1535071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="42">
-        <v>27.28</v>
-      </c>
-      <c r="C62" s="42">
-        <v>1.4</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="47"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
-        <v>46</v>
+      <c r="B77" s="47">
+        <v>1120.769231</v>
+      </c>
+      <c r="C77" s="47">
+        <v>7651.871795</v>
+      </c>
+      <c r="D77" s="47">
+        <v>78184.025640000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="60"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="7">
+        <v>944</v>
+      </c>
+      <c r="C79" s="7">
+        <v>657</v>
+      </c>
+      <c r="D79" s="7">
+        <v>13191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="47">
+        <v>10.35714286</v>
+      </c>
+      <c r="C80" s="47">
+        <v>7.1868131870000003</v>
+      </c>
+      <c r="D80" s="47">
+        <v>144.5604396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/img/data/data.xlsx
+++ b/img/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Github\taintbench\GitPod-GITHUB\TaintBench.github.io\img\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F401F9BD-4B4B-466B-AE95-FF581AF7482E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4793D-CEA7-42C8-BCA1-31837E3C516B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,6 +670,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>sum:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all apps in the suite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">avg: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average of the apps in the suite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">LOC: </t>
     </r>
     <r>
@@ -680,53 +726,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>line of decompiled source code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sum:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all apps in the suite</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">avg: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>average of the apps in the suite</t>
+      <t>lines of decompiled source code</t>
     </r>
   </si>
 </sst>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,17 +2817,17 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
